--- a/sofaplayer/Premier_League/Brentford_stats.xlsx
+++ b/sofaplayer/Premier_League/Brentford_stats.xlsx
@@ -1035,16 +1035,16 @@
         <v>1106451</v>
       </c>
       <c r="E2" t="n">
-        <v>6.8368421052632</v>
+        <v>6.805</v>
       </c>
       <c r="F2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" t="n">
-        <v>1281</v>
+        <v>1371</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -1053,13 +1053,13 @@
         <v>5</v>
       </c>
       <c r="K2" t="n">
-        <v>4.7496</v>
+        <v>4.7935</v>
       </c>
       <c r="L2" t="n">
-        <v>256.2</v>
+        <v>274.2</v>
       </c>
       <c r="M2" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N2" t="n">
         <v>10</v>
@@ -1068,7 +1068,7 @@
         <v>8</v>
       </c>
       <c r="P2" t="n">
-        <v>16.666666666667</v>
+        <v>16.129032258065</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -1101,49 +1101,49 @@
         <v>1</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.41567161</v>
+        <v>1.44632051</v>
       </c>
       <c r="AB2" t="n">
-        <v>620</v>
+        <v>650</v>
       </c>
       <c r="AC2" t="n">
         <v>5</v>
       </c>
       <c r="AD2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE2" t="n">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="AF2" t="n">
-        <v>60.869565217391</v>
+        <v>60.13986013986</v>
       </c>
       <c r="AG2" t="n">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="AH2" t="n">
         <v>44</v>
       </c>
       <c r="AI2" t="n">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AJ2" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AK2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AL2" t="n">
-        <v>34.782608695652</v>
+        <v>36</v>
       </c>
       <c r="AM2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN2" t="n">
-        <v>9.090909090909101</v>
+        <v>10.344827586207</v>
       </c>
       <c r="AO2" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AP2" t="n">
         <v>13</v>
@@ -1152,64 +1152,64 @@
         <v>5</v>
       </c>
       <c r="AR2" t="n">
+        <v>56</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>14</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>35</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>25.423728813559</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>92</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>41.441441441441</v>
+      </c>
+      <c r="BC2" t="n">
         <v>53</v>
       </c>
-      <c r="AS2" t="n">
-        <v>13</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>33</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>14</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>25.925925925926</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>89</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>42.583732057416</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>50</v>
-      </c>
       <c r="BD2" t="n">
-        <v>35.714285714286</v>
+        <v>35.333333333333</v>
       </c>
       <c r="BE2" t="n">
         <v>39</v>
       </c>
       <c r="BF2" t="n">
-        <v>56.521739130435</v>
+        <v>54.166666666667</v>
       </c>
       <c r="BG2" t="n">
-        <v>264</v>
+        <v>280</v>
       </c>
       <c r="BH2" t="n">
         <v>21</v>
       </c>
       <c r="BI2" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BJ2" t="n">
         <v>7</v>
       </c>
       <c r="BK2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BL2" t="n">
         <v>0</v>
@@ -1221,22 +1221,22 @@
         <v>0</v>
       </c>
       <c r="BO2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BP2" t="n">
         <v>0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>129.9</v>
+        <v>136.1</v>
       </c>
       <c r="BR2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS2" t="n">
         <v>6</v>
       </c>
       <c r="BT2" t="n">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="BU2" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>27</v>
       </c>
       <c r="CA2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CB2" t="n">
+        <v>19</v>
+      </c>
+      <c r="CC2" t="n">
         <v>17</v>
       </c>
-      <c r="CC2" t="n">
-        <v>16</v>
-      </c>
       <c r="CD2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CE2" t="n">
         <v>0</v>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CK2" t="n">
         <v>1</v>
@@ -1308,19 +1308,19 @@
         <v>0</v>
       </c>
       <c r="CR2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CS2" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="CT2" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="CU2" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="CV2" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="CW2" t="n">
         <v>0</v>
@@ -1332,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="CZ2" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="DA2" t="n">
         <v>7</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="DG2" t="n">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="DH2" t="n">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>1016907</v>
       </c>
       <c r="E3" t="n">
-        <v>6.992</v>
+        <v>6.9576923076923</v>
       </c>
       <c r="F3" t="n">
+        <v>26</v>
+      </c>
+      <c r="G3" t="n">
         <v>25</v>
       </c>
-      <c r="G3" t="n">
-        <v>24</v>
-      </c>
       <c r="H3" t="n">
-        <v>2114</v>
+        <v>2204</v>
       </c>
       <c r="I3" t="n">
         <v>5</v>
@@ -1409,22 +1409,22 @@
         <v>17</v>
       </c>
       <c r="K3" t="n">
-        <v>13.9573</v>
+        <v>14.7299</v>
       </c>
       <c r="L3" t="n">
-        <v>124.35294117647</v>
+        <v>129.64705882353</v>
       </c>
       <c r="M3" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="N3" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="O3" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="P3" t="n">
-        <v>30.909090909091</v>
+        <v>27.868852459016</v>
       </c>
       <c r="Q3" t="n">
         <v>6</v>
@@ -1457,40 +1457,40 @@
         <v>1</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.95255961</v>
+        <v>1.16910261</v>
       </c>
       <c r="AB3" t="n">
-        <v>773</v>
+        <v>810</v>
       </c>
       <c r="AC3" t="n">
         <v>4</v>
       </c>
       <c r="AD3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE3" t="n">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="AF3" t="n">
-        <v>71.82044887780501</v>
+        <v>69.761904761905</v>
       </c>
       <c r="AG3" t="n">
-        <v>401</v>
+        <v>420</v>
       </c>
       <c r="AH3" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AI3" t="n">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="AJ3" t="n">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AK3" t="n">
         <v>8</v>
       </c>
       <c r="AL3" t="n">
-        <v>61.538461538462</v>
+        <v>53.333333333333</v>
       </c>
       <c r="AM3" t="n">
         <v>4</v>
@@ -1502,13 +1502,13 @@
         <v>6</v>
       </c>
       <c r="AP3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AQ3" t="n">
         <v>11</v>
       </c>
       <c r="AR3" t="n">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="AS3" t="n">
         <v>9</v>
@@ -1517,7 +1517,7 @@
         <v>42</v>
       </c>
       <c r="AU3" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AV3" t="n">
         <v>1</v>
@@ -1529,37 +1529,37 @@
         <v>0</v>
       </c>
       <c r="AY3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>55.555555555556</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>123</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>36.283185840708</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>59</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>38.815789473684</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>64</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>34.224598930481</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>256</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>46</v>
+      </c>
+      <c r="BI3" t="n">
         <v>19</v>
-      </c>
-      <c r="AZ3" t="n">
-        <v>55.882352941176</v>
-      </c>
-      <c r="BA3" t="n">
-        <v>117</v>
-      </c>
-      <c r="BB3" t="n">
-        <v>36.677115987461</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>55</v>
-      </c>
-      <c r="BD3" t="n">
-        <v>38.461538461538</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>62</v>
-      </c>
-      <c r="BF3" t="n">
-        <v>35.227272727273</v>
-      </c>
-      <c r="BG3" t="n">
-        <v>236</v>
-      </c>
-      <c r="BH3" t="n">
-        <v>44</v>
-      </c>
-      <c r="BI3" t="n">
-        <v>17</v>
       </c>
       <c r="BJ3" t="n">
         <v>18</v>
@@ -1577,28 +1577,28 @@
         <v>5</v>
       </c>
       <c r="BO3" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="BP3" t="n">
         <v>0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>174.8</v>
+        <v>180.9</v>
       </c>
       <c r="BR3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BS3" t="n">
         <v>18</v>
       </c>
       <c r="BT3" t="n">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="BU3" t="n">
         <v>0</v>
       </c>
       <c r="BV3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BW3" t="n">
         <v>7</v>
@@ -1610,16 +1610,16 @@
         <v>0</v>
       </c>
       <c r="BZ3" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="CA3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CB3" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="CC3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="CD3" t="n">
         <v>19</v>
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="CJ3" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CK3" t="n">
         <v>1</v>
@@ -1664,19 +1664,19 @@
         <v>0</v>
       </c>
       <c r="CR3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CS3" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="CT3" t="n">
         <v>7</v>
       </c>
       <c r="CU3" t="n">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="CV3" t="n">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="CW3" t="n">
         <v>0</v>
@@ -1688,13 +1688,13 @@
         <v>1</v>
       </c>
       <c r="CZ3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="DA3" t="n">
         <v>11</v>
       </c>
       <c r="DB3" t="n">
-        <v>55</v>
+        <v>52.380952380952</v>
       </c>
       <c r="DC3" t="n">
         <v>0</v>
@@ -1706,10 +1706,10 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="DG3" t="n">
-        <v>262</v>
+        <v>275</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
@@ -2459,16 +2459,16 @@
         <v>42694</v>
       </c>
       <c r="E6" t="n">
-        <v>6.8608695652174</v>
+        <v>6.85</v>
       </c>
       <c r="F6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G6" t="n">
         <v>17</v>
       </c>
       <c r="H6" t="n">
-        <v>1487</v>
+        <v>1504</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -2480,7 +2480,7 @@
         <v>0.3319</v>
       </c>
       <c r="L6" t="n">
-        <v>1487</v>
+        <v>1504</v>
       </c>
       <c r="M6" t="n">
         <v>6</v>
@@ -2525,10 +2525,10 @@
         <v>3</v>
       </c>
       <c r="AA6" t="n">
-        <v>2.16956421</v>
+        <v>2.17985991</v>
       </c>
       <c r="AB6" t="n">
-        <v>1063</v>
+        <v>1075</v>
       </c>
       <c r="AC6" t="n">
         <v>6</v>
@@ -2537,37 +2537,37 @@
         <v>14</v>
       </c>
       <c r="AE6" t="n">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="AF6" t="n">
-        <v>79.318181818182</v>
+        <v>79.190101237345</v>
       </c>
       <c r="AG6" t="n">
-        <v>880</v>
+        <v>889</v>
       </c>
       <c r="AH6" t="n">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AI6" t="n">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="AJ6" t="n">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="AK6" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AL6" t="n">
-        <v>41.095890410959</v>
+        <v>40.939597315436</v>
       </c>
       <c r="AM6" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN6" t="n">
-        <v>35.714285714286</v>
+        <v>37.209302325581</v>
       </c>
       <c r="AO6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP6" t="n">
         <v>22</v>
@@ -2576,7 +2576,7 @@
         <v>4</v>
       </c>
       <c r="AR6" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AS6" t="n">
         <v>6</v>
@@ -2606,7 +2606,7 @@
         <v>36</v>
       </c>
       <c r="BB6" t="n">
-        <v>48.648648648649</v>
+        <v>48</v>
       </c>
       <c r="BC6" t="n">
         <v>29</v>
@@ -2618,10 +2618,10 @@
         <v>7</v>
       </c>
       <c r="BF6" t="n">
-        <v>41.176470588235</v>
+        <v>38.888888888889</v>
       </c>
       <c r="BG6" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="BH6" t="n">
         <v>11</v>
@@ -2651,16 +2651,16 @@
         <v>0</v>
       </c>
       <c r="BQ6" t="n">
-        <v>157.8</v>
+        <v>164.4</v>
       </c>
       <c r="BR6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BS6" t="n">
         <v>4</v>
       </c>
       <c r="BT6" t="n">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="BU6" t="n">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>6</v>
       </c>
       <c r="CC6" t="n">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="CD6" t="n">
         <v>53</v>
@@ -2738,13 +2738,13 @@
         <v>8</v>
       </c>
       <c r="CT6" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="CU6" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="CV6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CW6" t="n">
         <v>0</v>
@@ -2756,7 +2756,7 @@
         <v>0</v>
       </c>
       <c r="CZ6" t="n">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="DA6" t="n">
         <v>11</v>
@@ -2774,10 +2774,10 @@
         <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="DG6" t="n">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="DH6" t="n">
         <v>0</v>
@@ -3171,16 +3171,16 @@
         <v>907072</v>
       </c>
       <c r="E8" t="n">
-        <v>6.8952380952381</v>
+        <v>6.8818181818182</v>
       </c>
       <c r="F8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G8" t="n">
         <v>15</v>
       </c>
       <c r="H8" t="n">
-        <v>1296</v>
+        <v>1313</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>1.1235</v>
       </c>
       <c r="L8" t="n">
-        <v>1296</v>
+        <v>1313</v>
       </c>
       <c r="M8" t="n">
         <v>14</v>
@@ -3237,34 +3237,34 @@
         <v>3</v>
       </c>
       <c r="AA8" t="n">
-        <v>3.6828811</v>
+        <v>3.69096722</v>
       </c>
       <c r="AB8" t="n">
-        <v>853</v>
+        <v>866</v>
       </c>
       <c r="AC8" t="n">
         <v>9</v>
       </c>
       <c r="AD8" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE8" t="n">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="AF8" t="n">
-        <v>75.094339622642</v>
+        <v>75.418994413408</v>
       </c>
       <c r="AG8" t="n">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="AH8" t="n">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AI8" t="n">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="AJ8" t="n">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="AK8" t="n">
         <v>20</v>
@@ -3276,19 +3276,19 @@
         <v>25</v>
       </c>
       <c r="AN8" t="n">
-        <v>31.25</v>
+        <v>30.864197530864</v>
       </c>
       <c r="AO8" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AP8" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="AQ8" t="n">
         <v>16</v>
       </c>
       <c r="AR8" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AS8" t="n">
         <v>28</v>
@@ -3312,19 +3312,19 @@
         <v>11</v>
       </c>
       <c r="AZ8" t="n">
-        <v>33.333333333333</v>
+        <v>32.352941176471</v>
       </c>
       <c r="BA8" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="BB8" t="n">
-        <v>40.588235294118</v>
+        <v>40.462427745665</v>
       </c>
       <c r="BC8" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="BD8" t="n">
-        <v>41.549295774648</v>
+        <v>41.379310344828</v>
       </c>
       <c r="BE8" t="n">
         <v>10</v>
@@ -3333,7 +3333,7 @@
         <v>35.714285714286</v>
       </c>
       <c r="BG8" t="n">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="BH8" t="n">
         <v>11</v>
@@ -3363,10 +3363,10 @@
         <v>0</v>
       </c>
       <c r="BQ8" t="n">
-        <v>144.8</v>
+        <v>151.4</v>
       </c>
       <c r="BR8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS8" t="n">
         <v>4</v>
@@ -3396,13 +3396,13 @@
         <v>7</v>
       </c>
       <c r="CB8" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="CC8" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="CD8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="CE8" t="n">
         <v>0</v>
@@ -3444,16 +3444,16 @@
         <v>0</v>
       </c>
       <c r="CR8" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="CS8" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="CT8" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="CU8" t="n">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="CV8" t="n">
         <v>18</v>
@@ -3471,10 +3471,10 @@
         <v>51</v>
       </c>
       <c r="DA8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="DB8" t="n">
-        <v>60</v>
+        <v>61.111111111111</v>
       </c>
       <c r="DC8" t="n">
         <v>0</v>
@@ -3486,10 +3486,10 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="DG8" t="n">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="DH8" t="n">
         <v>0</v>
@@ -3883,16 +3883,16 @@
         <v>1031258</v>
       </c>
       <c r="E10" t="n">
-        <v>6.708</v>
+        <v>6.6961538461538</v>
       </c>
       <c r="F10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H10" t="n">
-        <v>1817</v>
+        <v>1890</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -3904,7 +3904,7 @@
         <v>1.176</v>
       </c>
       <c r="L10" t="n">
-        <v>1817</v>
+        <v>1890</v>
       </c>
       <c r="M10" t="n">
         <v>15</v>
@@ -3949,10 +3949,10 @@
         <v>2</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.07548393</v>
+        <v>1.07915797</v>
       </c>
       <c r="AB10" t="n">
-        <v>1172</v>
+        <v>1200</v>
       </c>
       <c r="AC10" t="n">
         <v>1</v>
@@ -3961,28 +3961,28 @@
         <v>12</v>
       </c>
       <c r="AE10" t="n">
-        <v>727</v>
+        <v>748</v>
       </c>
       <c r="AF10" t="n">
-        <v>83.56321839080501</v>
+        <v>83.856502242152</v>
       </c>
       <c r="AG10" t="n">
-        <v>870</v>
+        <v>892</v>
       </c>
       <c r="AH10" t="n">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="AI10" t="n">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="AJ10" t="n">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AK10" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="AL10" t="n">
-        <v>49.425287356322</v>
+        <v>50.549450549451</v>
       </c>
       <c r="AM10" t="n">
         <v>5</v>
@@ -3991,7 +3991,7 @@
         <v>27.777777777778</v>
       </c>
       <c r="AO10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP10" t="n">
         <v>50</v>
@@ -4000,7 +4000,7 @@
         <v>8</v>
       </c>
       <c r="AR10" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="AS10" t="n">
         <v>28</v>
@@ -4024,19 +4024,19 @@
         <v>11</v>
       </c>
       <c r="AZ10" t="n">
-        <v>35.483870967742</v>
+        <v>34.375</v>
       </c>
       <c r="BA10" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="BB10" t="n">
-        <v>43.157894736842</v>
+        <v>42.564102564103</v>
       </c>
       <c r="BC10" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="BD10" t="n">
-        <v>42.767295597484</v>
+        <v>42.073170731707</v>
       </c>
       <c r="BE10" t="n">
         <v>14</v>
@@ -4045,13 +4045,13 @@
         <v>45.161290322581</v>
       </c>
       <c r="BG10" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="BH10" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="BI10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BJ10" t="n">
         <v>1</v>
@@ -4069,22 +4069,22 @@
         <v>3</v>
       </c>
       <c r="BO10" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BP10" t="n">
         <v>0</v>
       </c>
       <c r="BQ10" t="n">
-        <v>167.7</v>
+        <v>174.1</v>
       </c>
       <c r="BR10" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BS10" t="n">
         <v>3</v>
       </c>
       <c r="BT10" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="BU10" t="n">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>14</v>
       </c>
       <c r="CC10" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="CD10" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="CE10" t="n">
         <v>0</v>
@@ -4132,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="CJ10" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="CK10" t="n">
         <v>1</v>
@@ -4159,13 +4159,13 @@
         <v>11</v>
       </c>
       <c r="CS10" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CT10" t="n">
         <v>18</v>
       </c>
       <c r="CU10" t="n">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="CV10" t="n">
         <v>17</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="CZ10" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="DA10" t="n">
         <v>31</v>
@@ -4198,10 +4198,10 @@
         <v>0</v>
       </c>
       <c r="DF10" t="n">
-        <v>426</v>
+        <v>440</v>
       </c>
       <c r="DG10" t="n">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="DH10" t="n">
         <v>0</v>
@@ -4593,16 +4593,16 @@
         <v>814873</v>
       </c>
       <c r="E12" t="n">
-        <v>7.035</v>
+        <v>7.0238095238095</v>
       </c>
       <c r="F12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H12" t="n">
-        <v>1132</v>
+        <v>1222</v>
       </c>
       <c r="I12" t="n">
         <v>2</v>
@@ -4614,7 +4614,7 @@
         <v>0.8363</v>
       </c>
       <c r="L12" t="n">
-        <v>1132</v>
+        <v>1222</v>
       </c>
       <c r="M12" t="n">
         <v>10</v>
@@ -4659,64 +4659,64 @@
         <v>4</v>
       </c>
       <c r="AA12" t="n">
-        <v>1.81558105</v>
+        <v>1.85859105</v>
       </c>
       <c r="AB12" t="n">
-        <v>886</v>
+        <v>940</v>
       </c>
       <c r="AC12" t="n">
         <v>6</v>
       </c>
       <c r="AD12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE12" t="n">
-        <v>576</v>
+        <v>609</v>
       </c>
       <c r="AF12" t="n">
-        <v>86.746987951807</v>
+        <v>86.628733997155</v>
       </c>
       <c r="AG12" t="n">
-        <v>664</v>
+        <v>703</v>
       </c>
       <c r="AH12" t="n">
-        <v>285</v>
+        <v>308</v>
       </c>
       <c r="AI12" t="n">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="AJ12" t="n">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="AK12" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="AL12" t="n">
-        <v>49.295774647887</v>
+        <v>50</v>
       </c>
       <c r="AM12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN12" t="n">
-        <v>29.166666666667</v>
+        <v>30</v>
       </c>
       <c r="AO12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AP12" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ12" t="n">
         <v>5</v>
       </c>
       <c r="AR12" t="n">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="AS12" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AT12" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AU12" t="n">
         <v>3</v>
@@ -4731,43 +4731,43 @@
         <v>0</v>
       </c>
       <c r="AY12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ12" t="n">
-        <v>37.5</v>
+        <v>44.444444444444</v>
       </c>
       <c r="BA12" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="BB12" t="n">
-        <v>53.333333333333</v>
+        <v>52.631578947368</v>
       </c>
       <c r="BC12" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="BD12" t="n">
-        <v>47.887323943662</v>
+        <v>46.835443037975</v>
       </c>
       <c r="BE12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BF12" t="n">
-        <v>64.705882352941</v>
+        <v>65.71428571428601</v>
       </c>
       <c r="BG12" t="n">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="BH12" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BI12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BJ12" t="n">
         <v>0</v>
       </c>
       <c r="BK12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BL12" t="n">
         <v>0</v>
@@ -4779,22 +4779,22 @@
         <v>4</v>
       </c>
       <c r="BO12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BP12" t="n">
         <v>0</v>
       </c>
       <c r="BQ12" t="n">
-        <v>140.7</v>
+        <v>147.5</v>
       </c>
       <c r="BR12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS12" t="n">
         <v>5</v>
       </c>
       <c r="BT12" t="n">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="BU12" t="n">
         <v>0</v>
@@ -4821,10 +4821,10 @@
         <v>5</v>
       </c>
       <c r="CC12" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="CD12" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="CE12" t="n">
         <v>0</v>
@@ -4842,7 +4842,7 @@
         <v>0</v>
       </c>
       <c r="CJ12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CK12" t="n">
         <v>1</v>
@@ -4866,16 +4866,16 @@
         <v>0</v>
       </c>
       <c r="CR12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="CS12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CT12" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="CU12" t="n">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="CV12" t="n">
         <v>12</v>
@@ -4890,13 +4890,13 @@
         <v>0</v>
       </c>
       <c r="CZ12" t="n">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="DA12" t="n">
         <v>15</v>
       </c>
       <c r="DB12" t="n">
-        <v>65.217391304348</v>
+        <v>62.5</v>
       </c>
       <c r="DC12" t="n">
         <v>0</v>
@@ -4908,10 +4908,10 @@
         <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>311</v>
+        <v>335</v>
       </c>
       <c r="DG12" t="n">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="DH12" t="n">
         <v>0</v>
@@ -4949,16 +4949,16 @@
         <v>799251</v>
       </c>
       <c r="E13" t="n">
-        <v>6.8739130434783</v>
+        <v>6.8583333333333</v>
       </c>
       <c r="F13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H13" t="n">
-        <v>1141</v>
+        <v>1231</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -4970,7 +4970,7 @@
         <v>1.8432</v>
       </c>
       <c r="L13" t="n">
-        <v>570.5</v>
+        <v>615.5</v>
       </c>
       <c r="M13" t="n">
         <v>18</v>
@@ -5015,58 +5015,58 @@
         <v>1</v>
       </c>
       <c r="AA13" t="n">
-        <v>2.98224333</v>
+        <v>3.33289733</v>
       </c>
       <c r="AB13" t="n">
-        <v>771</v>
+        <v>817</v>
       </c>
       <c r="AC13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AD13" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AE13" t="n">
-        <v>430</v>
+        <v>452</v>
       </c>
       <c r="AF13" t="n">
-        <v>82.37547892720301</v>
+        <v>81.735985533454</v>
       </c>
       <c r="AG13" t="n">
-        <v>522</v>
+        <v>553</v>
       </c>
       <c r="AH13" t="n">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="AI13" t="n">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="AJ13" t="n">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="AK13" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AL13" t="n">
-        <v>61.666666666667</v>
+        <v>58.461538461538</v>
       </c>
       <c r="AM13" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN13" t="n">
-        <v>24.193548387097</v>
+        <v>24.63768115942</v>
       </c>
       <c r="AO13" t="n">
         <v>6</v>
       </c>
       <c r="AP13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR13" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AS13" t="n">
         <v>17</v>
@@ -5090,40 +5090,40 @@
         <v>14</v>
       </c>
       <c r="AZ13" t="n">
-        <v>66.666666666667</v>
+        <v>63.636363636364</v>
       </c>
       <c r="BA13" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="BB13" t="n">
-        <v>40.18691588785</v>
+        <v>39.655172413793</v>
       </c>
       <c r="BC13" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="BD13" t="n">
-        <v>43.820224719101</v>
+        <v>43.75</v>
       </c>
       <c r="BE13" t="n">
         <v>4</v>
       </c>
       <c r="BF13" t="n">
-        <v>22.222222222222</v>
+        <v>20</v>
       </c>
       <c r="BG13" t="n">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="BH13" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BI13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BJ13" t="n">
         <v>2</v>
       </c>
       <c r="BK13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BL13" t="n">
         <v>0</v>
@@ -5135,22 +5135,22 @@
         <v>0</v>
       </c>
       <c r="BO13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BP13" t="n">
         <v>0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>158.1</v>
+        <v>164.6</v>
       </c>
       <c r="BR13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BS13" t="n">
         <v>3</v>
       </c>
       <c r="BT13" t="n">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="BU13" t="n">
         <v>0</v>
@@ -5174,13 +5174,13 @@
         <v>12</v>
       </c>
       <c r="CB13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CC13" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="CD13" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="CE13" t="n">
         <v>0</v>
@@ -5198,7 +5198,7 @@
         <v>0</v>
       </c>
       <c r="CJ13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CK13" t="n">
         <v>1</v>
@@ -5222,19 +5222,19 @@
         <v>0</v>
       </c>
       <c r="CR13" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="CS13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CT13" t="n">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="CU13" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="CV13" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="CW13" t="n">
         <v>0</v>
@@ -5246,13 +5246,13 @@
         <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="DA13" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="DB13" t="n">
-        <v>66.666666666667</v>
+        <v>69.565217391304</v>
       </c>
       <c r="DC13" t="n">
         <v>0</v>
@@ -5264,10 +5264,10 @@
         <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="DG13" t="n">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="DH13" t="n">
         <v>0</v>
@@ -5305,16 +5305,16 @@
         <v>1137431</v>
       </c>
       <c r="E14" t="n">
-        <v>6.86</v>
+        <v>6.8576923076923</v>
       </c>
       <c r="F14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H14" t="n">
-        <v>2184</v>
+        <v>2274</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -5323,13 +5323,13 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1893</v>
+        <v>0.27</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N14" t="n">
         <v>1</v>
@@ -5371,70 +5371,70 @@
         <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>2.23491588</v>
+        <v>2.29448628</v>
       </c>
       <c r="AB14" t="n">
-        <v>1473</v>
+        <v>1524</v>
       </c>
       <c r="AC14" t="n">
         <v>3</v>
       </c>
       <c r="AD14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE14" t="n">
-        <v>670</v>
+        <v>685</v>
       </c>
       <c r="AF14" t="n">
-        <v>86.118251928021</v>
+        <v>86.05527638191001</v>
       </c>
       <c r="AG14" t="n">
-        <v>778</v>
+        <v>796</v>
       </c>
       <c r="AH14" t="n">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="AI14" t="n">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="AJ14" t="n">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AK14" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AL14" t="n">
-        <v>42.553191489362</v>
+        <v>44</v>
       </c>
       <c r="AM14" t="n">
         <v>14</v>
       </c>
       <c r="AN14" t="n">
-        <v>31.111111111111</v>
+        <v>30.434782608696</v>
       </c>
       <c r="AO14" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AP14" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AQ14" t="n">
         <v>4</v>
       </c>
       <c r="AR14" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AS14" t="n">
         <v>15</v>
       </c>
       <c r="AT14" t="n">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="AU14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW14" t="n">
         <v>0</v>
@@ -5443,37 +5443,37 @@
         <v>2</v>
       </c>
       <c r="AY14" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AZ14" t="n">
-        <v>51.515151515152</v>
+        <v>50.724637681159</v>
       </c>
       <c r="BA14" t="n">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="BB14" t="n">
-        <v>60.416666666667</v>
+        <v>60.323886639676</v>
       </c>
       <c r="BC14" t="n">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="BD14" t="n">
-        <v>58.974358974359</v>
+        <v>59.203980099502</v>
       </c>
       <c r="BE14" t="n">
         <v>30</v>
       </c>
       <c r="BF14" t="n">
-        <v>66.666666666667</v>
+        <v>65.217391304348</v>
       </c>
       <c r="BG14" t="n">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="BH14" t="n">
         <v>17</v>
       </c>
       <c r="BI14" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="BJ14" t="n">
         <v>1</v>
@@ -5491,22 +5491,22 @@
         <v>4</v>
       </c>
       <c r="BO14" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="BP14" t="n">
         <v>0</v>
       </c>
       <c r="BQ14" t="n">
-        <v>171.5</v>
+        <v>178.3</v>
       </c>
       <c r="BR14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BS14" t="n">
         <v>0</v>
       </c>
       <c r="BT14" t="n">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="BU14" t="n">
         <v>0</v>
@@ -5527,22 +5527,22 @@
         <v>5</v>
       </c>
       <c r="CA14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CB14" t="n">
         <v>18</v>
       </c>
       <c r="CC14" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="CD14" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="CE14" t="n">
         <v>0</v>
       </c>
       <c r="CF14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CG14" t="n">
         <v>0</v>
@@ -5554,7 +5554,7 @@
         <v>0</v>
       </c>
       <c r="CJ14" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="CK14" t="n">
         <v>1</v>
@@ -5581,16 +5581,16 @@
         <v>25</v>
       </c>
       <c r="CS14" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="CT14" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="CU14" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="CV14" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CW14" t="n">
         <v>0</v>
@@ -5602,13 +5602,13 @@
         <v>0</v>
       </c>
       <c r="CZ14" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="DA14" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="DB14" t="n">
-        <v>66.666666666667</v>
+        <v>68</v>
       </c>
       <c r="DC14" t="n">
         <v>0</v>
@@ -5620,10 +5620,10 @@
         <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>427</v>
+        <v>438</v>
       </c>
       <c r="DG14" t="n">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="DH14" t="n">
         <v>0</v>
@@ -5661,16 +5661,16 @@
         <v>924378</v>
       </c>
       <c r="E15" t="n">
-        <v>6.715</v>
+        <v>6.7428571428571</v>
       </c>
       <c r="F15" t="n">
+        <v>21</v>
+      </c>
+      <c r="G15" t="n">
         <v>20</v>
       </c>
-      <c r="G15" t="n">
-        <v>19</v>
-      </c>
       <c r="H15" t="n">
-        <v>1763</v>
+        <v>1853</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -5679,13 +5679,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>1.6782</v>
+        <v>1.7279</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="N15" t="n">
         <v>4</v>
@@ -5724,43 +5724,43 @@
         <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.23769801</v>
+        <v>0.50926301</v>
       </c>
       <c r="AB15" t="n">
-        <v>1125</v>
+        <v>1180</v>
       </c>
       <c r="AC15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE15" t="n">
-        <v>788</v>
+        <v>826</v>
       </c>
       <c r="AF15" t="n">
-        <v>89.14027149321301</v>
+        <v>89.200863930886</v>
       </c>
       <c r="AG15" t="n">
-        <v>884</v>
+        <v>926</v>
       </c>
       <c r="AH15" t="n">
-        <v>580</v>
+        <v>611</v>
       </c>
       <c r="AI15" t="n">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="AJ15" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="AK15" t="n">
         <v>39</v>
       </c>
       <c r="AL15" t="n">
-        <v>59.090909090909</v>
+        <v>57.352941176471</v>
       </c>
       <c r="AM15" t="n">
         <v>0</v>
@@ -5769,22 +5769,22 @@
         <v>0</v>
       </c>
       <c r="AO15" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AP15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AQ15" t="n">
         <v>1</v>
       </c>
       <c r="AR15" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AS15" t="n">
         <v>4</v>
       </c>
       <c r="AT15" t="n">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="AU15" t="n">
         <v>3</v>
@@ -5805,25 +5805,25 @@
         <v>100</v>
       </c>
       <c r="BA15" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="BB15" t="n">
-        <v>63.975155279503</v>
+        <v>63.473053892216</v>
       </c>
       <c r="BC15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD15" t="n">
-        <v>57.894736842105</v>
+        <v>57.5</v>
       </c>
       <c r="BE15" t="n">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="BF15" t="n">
-        <v>65.853658536585</v>
+        <v>65.354330708661</v>
       </c>
       <c r="BG15" t="n">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="BH15" t="n">
         <v>10</v>
@@ -5847,28 +5847,28 @@
         <v>4</v>
       </c>
       <c r="BO15" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BP15" t="n">
         <v>0</v>
       </c>
       <c r="BQ15" t="n">
-        <v>134.3</v>
+        <v>141.6</v>
       </c>
       <c r="BR15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BT15" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="BU15" t="n">
         <v>0</v>
       </c>
       <c r="BV15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BW15" t="n">
         <v>0</v>
@@ -5880,16 +5880,16 @@
         <v>0</v>
       </c>
       <c r="BZ15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CA15" t="n">
         <v>1</v>
       </c>
       <c r="CB15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CC15" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="CD15" t="n">
         <v>16</v>
@@ -5910,7 +5910,7 @@
         <v>0</v>
       </c>
       <c r="CJ15" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="CK15" t="n">
         <v>2</v>
@@ -5934,7 +5934,7 @@
         <v>0</v>
       </c>
       <c r="CR15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CS15" t="n">
         <v>1</v>
@@ -5943,10 +5943,10 @@
         <v>0</v>
       </c>
       <c r="CU15" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="CV15" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="CW15" t="n">
         <v>0</v>
@@ -5958,13 +5958,13 @@
         <v>0</v>
       </c>
       <c r="CZ15" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="DA15" t="n">
         <v>5</v>
       </c>
       <c r="DB15" t="n">
-        <v>38.461538461538</v>
+        <v>35.714285714286</v>
       </c>
       <c r="DC15" t="n">
         <v>0</v>
@@ -5976,16 +5976,16 @@
         <v>0</v>
       </c>
       <c r="DF15" t="n">
-        <v>611</v>
+        <v>643</v>
       </c>
       <c r="DG15" t="n">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="DH15" t="n">
         <v>24</v>
       </c>
       <c r="DI15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="DJ15" t="n">
         <v>2143698</v>
@@ -6373,16 +6373,16 @@
         <v>576384</v>
       </c>
       <c r="E17" t="n">
-        <v>6.6789473684211</v>
+        <v>6.7</v>
       </c>
       <c r="F17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H17" t="n">
-        <v>1290</v>
+        <v>1380</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -6439,10 +6439,10 @@
         <v>1</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.59215995</v>
+        <v>0.62874165</v>
       </c>
       <c r="AB17" t="n">
-        <v>718</v>
+        <v>762</v>
       </c>
       <c r="AC17" t="n">
         <v>1</v>
@@ -6451,28 +6451,28 @@
         <v>2</v>
       </c>
       <c r="AE17" t="n">
-        <v>373</v>
+        <v>398</v>
       </c>
       <c r="AF17" t="n">
-        <v>78.85835095137401</v>
+        <v>78.968253968254</v>
       </c>
       <c r="AG17" t="n">
-        <v>473</v>
+        <v>504</v>
       </c>
       <c r="AH17" t="n">
-        <v>252</v>
+        <v>271</v>
       </c>
       <c r="AI17" t="n">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="AJ17" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="AK17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL17" t="n">
-        <v>31.666666666667</v>
+        <v>31.34328358209</v>
       </c>
       <c r="AM17" t="n">
         <v>0</v>
@@ -6484,19 +6484,19 @@
         <v>14</v>
       </c>
       <c r="AP17" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AQ17" t="n">
         <v>1</v>
       </c>
       <c r="AR17" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AS17" t="n">
         <v>6</v>
       </c>
       <c r="AT17" t="n">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="AU17" t="n">
         <v>2</v>
@@ -6514,31 +6514,31 @@
         <v>2</v>
       </c>
       <c r="AZ17" t="n">
-        <v>25</v>
+        <v>22.222222222222</v>
       </c>
       <c r="BA17" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="BB17" t="n">
-        <v>55.555555555556</v>
+        <v>55.333333333333</v>
       </c>
       <c r="BC17" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="BD17" t="n">
-        <v>51.470588235294</v>
+        <v>51.388888888889</v>
       </c>
       <c r="BE17" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BF17" t="n">
-        <v>59.210526315789</v>
+        <v>58.974358974359</v>
       </c>
       <c r="BG17" t="n">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="BH17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BI17" t="n">
         <v>5</v>
@@ -6559,22 +6559,22 @@
         <v>4</v>
       </c>
       <c r="BO17" t="n">
+        <v>21</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ17" t="n">
+        <v>134</v>
+      </c>
+      <c r="BR17" t="n">
         <v>20</v>
       </c>
-      <c r="BP17" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ17" t="n">
-        <v>126.9</v>
-      </c>
-      <c r="BR17" t="n">
-        <v>19</v>
-      </c>
       <c r="BS17" t="n">
         <v>1</v>
       </c>
       <c r="BT17" t="n">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="BU17" t="n">
         <v>0</v>
@@ -6601,10 +6601,10 @@
         <v>4</v>
       </c>
       <c r="CC17" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="CD17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CE17" t="n">
         <v>0</v>
@@ -6622,7 +6622,7 @@
         <v>0</v>
       </c>
       <c r="CJ17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CK17" t="n">
         <v>1</v>
@@ -6649,16 +6649,16 @@
         <v>2</v>
       </c>
       <c r="CS17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CT17" t="n">
         <v>5</v>
       </c>
       <c r="CU17" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="CV17" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CW17" t="n">
         <v>0</v>
@@ -6670,14 +6670,14 @@
         <v>0</v>
       </c>
       <c r="CZ17" t="n">
+        <v>67</v>
+      </c>
+      <c r="DA17" t="n">
+        <v>18</v>
+      </c>
+      <c r="DB17" t="n">
         <v>60</v>
       </c>
-      <c r="DA17" t="n">
-        <v>17</v>
-      </c>
-      <c r="DB17" t="n">
-        <v>60.714285714286</v>
-      </c>
       <c r="DC17" t="n">
         <v>0</v>
       </c>
@@ -6688,16 +6688,16 @@
         <v>0</v>
       </c>
       <c r="DF17" t="n">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="DG17" t="n">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="DH17" t="n">
         <v>0</v>
       </c>
       <c r="DI17" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="DJ17" t="n">
         <v>2163600</v>
@@ -6729,40 +6729,40 @@
         <v>972421</v>
       </c>
       <c r="E18" t="n">
-        <v>6.6347826086957</v>
+        <v>6.675</v>
       </c>
       <c r="F18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H18" t="n">
-        <v>1037</v>
+        <v>1110</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K18" t="n">
-        <v>1.4419</v>
+        <v>2.0019</v>
       </c>
       <c r="L18" t="n">
-        <v>518.5</v>
+        <v>370</v>
       </c>
       <c r="M18" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>13.333333333333</v>
+        <v>16.666666666667</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -6774,13 +6774,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18" t="n">
         <v>1</v>
@@ -6795,10 +6795,10 @@
         <v>1</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.9642420900000001</v>
+        <v>0.98785809</v>
       </c>
       <c r="AB18" t="n">
-        <v>453</v>
+        <v>481</v>
       </c>
       <c r="AC18" t="n">
         <v>3</v>
@@ -6807,22 +6807,22 @@
         <v>10</v>
       </c>
       <c r="AE18" t="n">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="AF18" t="n">
-        <v>76.984126984127</v>
+        <v>77.238805970149</v>
       </c>
       <c r="AG18" t="n">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="AH18" t="n">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="AI18" t="n">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AJ18" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AK18" t="n">
         <v>10</v>
@@ -6837,16 +6837,16 @@
         <v>21.212121212121</v>
       </c>
       <c r="AO18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ18" t="n">
         <v>4</v>
       </c>
       <c r="AR18" t="n">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="AS18" t="n">
         <v>7</v>
@@ -6867,22 +6867,22 @@
         <v>0</v>
       </c>
       <c r="AY18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ18" t="n">
-        <v>29.411764705882</v>
+        <v>31.578947368421</v>
       </c>
       <c r="BA18" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="BB18" t="n">
-        <v>44.444444444444</v>
+        <v>44.761904761905</v>
       </c>
       <c r="BC18" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="BD18" t="n">
-        <v>46.913580246914</v>
+        <v>47.126436781609</v>
       </c>
       <c r="BE18" t="n">
         <v>6</v>
@@ -6891,13 +6891,13 @@
         <v>33.333333333333</v>
       </c>
       <c r="BG18" t="n">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="BH18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BI18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BJ18" t="n">
         <v>3</v>
@@ -6915,28 +6915,28 @@
         <v>3</v>
       </c>
       <c r="BO18" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BP18" t="n">
         <v>0</v>
       </c>
       <c r="BQ18" t="n">
-        <v>152.6</v>
+        <v>160.2</v>
       </c>
       <c r="BR18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BS18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BT18" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="BU18" t="n">
         <v>0</v>
       </c>
       <c r="BV18" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BW18" t="n">
         <v>0</v>
@@ -6948,19 +6948,19 @@
         <v>3</v>
       </c>
       <c r="BZ18" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="CA18" t="n">
         <v>6</v>
       </c>
       <c r="CB18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CC18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="CD18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CE18" t="n">
         <v>0</v>
@@ -6978,7 +6978,7 @@
         <v>0</v>
       </c>
       <c r="CJ18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CK18" t="n">
         <v>2</v>
@@ -7005,13 +7005,13 @@
         <v>10</v>
       </c>
       <c r="CS18" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="CT18" t="n">
         <v>33</v>
       </c>
       <c r="CU18" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="CV18" t="n">
         <v>12</v>
@@ -7032,7 +7032,7 @@
         <v>9</v>
       </c>
       <c r="DB18" t="n">
-        <v>64.28571428571399</v>
+        <v>60</v>
       </c>
       <c r="DC18" t="n">
         <v>0</v>
@@ -7044,10 +7044,10 @@
         <v>0</v>
       </c>
       <c r="DF18" t="n">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="DG18" t="n">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="DH18" t="n">
         <v>0</v>
@@ -7442,13 +7442,13 @@
         <v>6.54375</v>
       </c>
       <c r="F20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G20" t="n">
         <v>6</v>
       </c>
       <c r="H20" t="n">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -7505,10 +7505,10 @@
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.13190315</v>
+        <v>0.13198646</v>
       </c>
       <c r="AB20" t="n">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
@@ -7517,19 +7517,19 @@
         <v>0</v>
       </c>
       <c r="AE20" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AF20" t="n">
-        <v>82.93650793650799</v>
+        <v>83.00395256917</v>
       </c>
       <c r="AG20" t="n">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AH20" t="n">
         <v>121</v>
       </c>
       <c r="AI20" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AJ20" t="n">
         <v>31</v>
@@ -7601,7 +7601,7 @@
         <v>50</v>
       </c>
       <c r="BG20" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="BH20" t="n">
         <v>6</v>
@@ -7757,7 +7757,7 @@
         <v>138</v>
       </c>
       <c r="DG20" t="n">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="DH20" t="n">
         <v>0</v>
@@ -7795,16 +7795,16 @@
         <v>599128</v>
       </c>
       <c r="E21" t="n">
-        <v>6.45</v>
+        <v>6.447619047619</v>
       </c>
       <c r="F21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H21" t="n">
-        <v>1044</v>
+        <v>1133</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -7861,10 +7861,10 @@
         <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.43972073</v>
+        <v>0.45082883</v>
       </c>
       <c r="AB21" t="n">
-        <v>609</v>
+        <v>657</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
@@ -7873,28 +7873,28 @@
         <v>2</v>
       </c>
       <c r="AE21" t="n">
-        <v>267</v>
+        <v>286</v>
       </c>
       <c r="AF21" t="n">
-        <v>76.28571428571399</v>
+        <v>76.26666666666701</v>
       </c>
       <c r="AG21" t="n">
-        <v>350</v>
+        <v>375</v>
       </c>
       <c r="AH21" t="n">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="AI21" t="n">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="AJ21" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AK21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL21" t="n">
-        <v>35</v>
+        <v>35.714285714286</v>
       </c>
       <c r="AM21" t="n">
         <v>2</v>
@@ -7903,7 +7903,7 @@
         <v>9.523809523809501</v>
       </c>
       <c r="AO21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP21" t="n">
         <v>13</v>
@@ -7912,13 +7912,13 @@
         <v>3</v>
       </c>
       <c r="AR21" t="n">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="AS21" t="n">
         <v>6</v>
       </c>
       <c r="AT21" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="AU21" t="n">
         <v>1</v>
@@ -7933,37 +7933,37 @@
         <v>1</v>
       </c>
       <c r="AY21" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ21" t="n">
+        <v>47.826086956522</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>52</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>50.980392156863</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>38</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>51.351351351351</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>14</v>
+      </c>
+      <c r="BF21" t="n">
         <v>50</v>
       </c>
-      <c r="BA21" t="n">
-        <v>48</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>51.063829787234</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>35</v>
-      </c>
-      <c r="BD21" t="n">
-        <v>50.724637681159</v>
-      </c>
-      <c r="BE21" t="n">
-        <v>13</v>
-      </c>
-      <c r="BF21" t="n">
-        <v>52</v>
-      </c>
       <c r="BG21" t="n">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="BH21" t="n">
         <v>13</v>
       </c>
       <c r="BI21" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BJ21" t="n">
         <v>1</v>
@@ -7981,22 +7981,22 @@
         <v>3</v>
       </c>
       <c r="BO21" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BP21" t="n">
         <v>0</v>
       </c>
       <c r="BQ21" t="n">
-        <v>129</v>
+        <v>135.4</v>
       </c>
       <c r="BR21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS21" t="n">
         <v>0</v>
       </c>
       <c r="BT21" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="BU21" t="n">
         <v>0</v>
@@ -8023,7 +8023,7 @@
         <v>5</v>
       </c>
       <c r="CC21" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="CD21" t="n">
         <v>11</v>
@@ -8044,7 +8044,7 @@
         <v>0</v>
       </c>
       <c r="CJ21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CK21" t="n">
         <v>1</v>
@@ -8071,16 +8071,16 @@
         <v>2</v>
       </c>
       <c r="CS21" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="CT21" t="n">
         <v>21</v>
       </c>
       <c r="CU21" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="CV21" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="CW21" t="n">
         <v>0</v>
@@ -8092,7 +8092,7 @@
         <v>0</v>
       </c>
       <c r="CZ21" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="DA21" t="n">
         <v>9</v>
@@ -8110,10 +8110,10 @@
         <v>0</v>
       </c>
       <c r="DF21" t="n">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="DG21" t="n">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="DH21" t="n">
         <v>0</v>
@@ -8151,16 +8151,16 @@
         <v>827362</v>
       </c>
       <c r="E22" t="n">
-        <v>7.056</v>
+        <v>7.0423076923077</v>
       </c>
       <c r="F22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H22" t="n">
-        <v>2250</v>
+        <v>2340</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
@@ -8215,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.0539008</v>
+        <v>0.05849491</v>
       </c>
       <c r="AB22" t="n">
-        <v>1092</v>
+        <v>1140</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -8227,28 +8227,28 @@
         <v>2</v>
       </c>
       <c r="AE22" t="n">
-        <v>555</v>
+        <v>581</v>
       </c>
       <c r="AF22" t="n">
-        <v>65.448113207547</v>
+        <v>65.13452914798199</v>
       </c>
       <c r="AG22" t="n">
-        <v>848</v>
+        <v>892</v>
       </c>
       <c r="AH22" t="n">
-        <v>429</v>
+        <v>449</v>
       </c>
       <c r="AI22" t="n">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="AJ22" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AK22" t="n">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="AL22" t="n">
-        <v>37.953091684435</v>
+        <v>37.575757575758</v>
       </c>
       <c r="AM22" t="n">
         <v>0</v>
@@ -8266,13 +8266,13 @@
         <v>0</v>
       </c>
       <c r="AR22" t="n">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AS22" t="n">
         <v>1</v>
       </c>
       <c r="AT22" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -8311,7 +8311,7 @@
         <v>80</v>
       </c>
       <c r="BG22" t="n">
-        <v>299</v>
+        <v>317</v>
       </c>
       <c r="BH22" t="n">
         <v>2</v>
@@ -8329,28 +8329,28 @@
         <v>0</v>
       </c>
       <c r="BM22" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="BN22" t="n">
         <v>6</v>
       </c>
       <c r="BO22" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="BP22" t="n">
         <v>3</v>
       </c>
       <c r="BQ22" t="n">
-        <v>176.4</v>
+        <v>183.1</v>
       </c>
       <c r="BR22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BS22" t="n">
         <v>0</v>
       </c>
       <c r="BT22" t="n">
-        <v>293</v>
+        <v>311</v>
       </c>
       <c r="BU22" t="n">
         <v>0</v>
@@ -8377,10 +8377,10 @@
         <v>0</v>
       </c>
       <c r="CC22" t="n">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="CD22" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="CE22" t="n">
         <v>0</v>
@@ -8392,13 +8392,13 @@
         <v>7</v>
       </c>
       <c r="CH22" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="CI22" t="n">
         <v>27</v>
       </c>
       <c r="CJ22" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="CK22" t="n">
         <v>2</v>
@@ -8407,10 +8407,10 @@
         <v>21</v>
       </c>
       <c r="CM22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CN22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CO22" t="n">
         <v>15</v>
@@ -8446,7 +8446,7 @@
         <v>0</v>
       </c>
       <c r="CZ22" t="n">
-        <v>469</v>
+        <v>495</v>
       </c>
       <c r="DA22" t="n">
         <v>0</v>
@@ -8464,13 +8464,13 @@
         <v>13</v>
       </c>
       <c r="DF22" t="n">
-        <v>464</v>
+        <v>484</v>
       </c>
       <c r="DG22" t="n">
-        <v>384</v>
+        <v>408</v>
       </c>
       <c r="DH22" t="n">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="DI22" t="n">
         <v>0</v>
@@ -8484,7 +8484,7 @@
         </is>
       </c>
       <c r="DL22" t="n">
-        <v>-2.4558</v>
+        <v>-2.5101</v>
       </c>
     </row>
   </sheetData>
